--- a/Stats/NUMBEO_Property_Price_Index.xlsx
+++ b/Stats/NUMBEO_Property_Price_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="334">
   <si>
     <t>Rank</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Affordability Index</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Addis Ababa, Ethiopia</t>
@@ -1370,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -1439,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>41.1</v>
@@ -1468,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>37.9</v>
@@ -1497,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>37.1</v>
@@ -1526,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>34.5</v>
@@ -1555,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>33.1</v>
@@ -1584,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>32.3</v>
@@ -1613,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>30.3</v>
@@ -1642,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>30.1</v>
@@ -1671,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>29.8</v>
@@ -1700,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>28.5</v>
@@ -1729,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>28.4</v>
@@ -1758,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>28.2</v>
@@ -1787,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>28.1</v>
@@ -1816,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>27.3</v>
@@ -1845,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>27</v>
@@ -1874,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>25.4</v>
@@ -1903,7 +1906,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>25.3</v>
@@ -1932,7 +1935,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>24.4</v>
@@ -1961,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>24.2</v>
@@ -1990,7 +1993,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>23.3</v>
@@ -2019,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>22.7</v>
@@ -2048,7 +2051,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>22.6</v>
@@ -2077,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>21.9</v>
@@ -2106,7 +2109,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>20.8</v>
@@ -2135,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>20.4</v>
@@ -2164,7 +2167,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>20.1</v>
@@ -2193,7 +2196,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>19.9</v>
@@ -2222,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>19.7</v>
@@ -2251,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>19.4</v>
@@ -2280,7 +2283,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>19</v>
@@ -2309,7 +2312,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>19</v>
@@ -2338,7 +2341,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>18.8</v>
@@ -2367,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>18.5</v>
@@ -2396,7 +2399,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>18.3</v>
@@ -2425,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -2454,7 +2457,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>17.9</v>
@@ -2483,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>17.8</v>
@@ -2512,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>17.7</v>
@@ -2541,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>17.4</v>
@@ -2570,7 +2573,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>17.4</v>
@@ -2599,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>17.3</v>
@@ -2628,7 +2631,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>17.3</v>
@@ -2657,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>17.3</v>
@@ -2686,7 +2689,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>17.3</v>
@@ -2715,7 +2718,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>17.3</v>
@@ -2744,7 +2747,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>17.2</v>
@@ -2773,7 +2776,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>16.8</v>
@@ -2802,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>16.8</v>
@@ -2831,7 +2834,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>16.7</v>
@@ -2860,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>16.5</v>
@@ -2889,7 +2892,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>16.3</v>
@@ -2918,7 +2921,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>16.2</v>
@@ -2947,7 +2950,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>16.1</v>
@@ -2976,7 +2979,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>16.1</v>
@@ -3005,7 +3008,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>15.9</v>
@@ -3034,7 +3037,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>15.7</v>
@@ -3063,7 +3066,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>15.6</v>
@@ -3092,7 +3095,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>15.6</v>
@@ -3121,7 +3124,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>15.5</v>
@@ -3150,7 +3153,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>15.5</v>
@@ -3179,7 +3182,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>15.5</v>
@@ -3208,7 +3211,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>15.4</v>
@@ -3237,7 +3240,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>15.4</v>
@@ -3266,7 +3269,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>15.3</v>
@@ -3295,7 +3298,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>15.2</v>
@@ -3324,7 +3327,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>15.2</v>
@@ -3353,7 +3356,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>15.2</v>
@@ -3382,7 +3385,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>15.1</v>
@@ -3411,7 +3414,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>15.1</v>
@@ -3440,7 +3443,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -3469,7 +3472,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>15</v>
@@ -3498,7 +3501,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>15</v>
@@ -3527,7 +3530,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>14.7</v>
@@ -3556,7 +3559,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>14.7</v>
@@ -3585,7 +3588,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>14.6</v>
@@ -3614,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>14.6</v>
@@ -3643,7 +3646,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>14.6</v>
@@ -3672,7 +3675,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>14.5</v>
@@ -3701,7 +3704,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>14.5</v>
@@ -3730,7 +3733,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>14.4</v>
@@ -3759,7 +3762,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>14.4</v>
@@ -3788,7 +3791,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>14.4</v>
@@ -3817,7 +3820,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>14.3</v>
@@ -3846,7 +3849,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>14.3</v>
@@ -3875,7 +3878,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>14.2</v>
@@ -3904,7 +3907,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>14.1</v>
@@ -3933,7 +3936,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C89">
         <v>14.1</v>
@@ -3962,7 +3965,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>14.1</v>
@@ -3991,7 +3994,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>14</v>
@@ -4020,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>13.9</v>
@@ -4049,7 +4052,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>13.9</v>
@@ -4078,7 +4081,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C94">
         <v>13.8</v>
@@ -4107,7 +4110,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95">
         <v>13.8</v>
@@ -4136,7 +4139,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96">
         <v>13.7</v>
@@ -4165,7 +4168,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C97">
         <v>13.7</v>
@@ -4194,7 +4197,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98">
         <v>13.7</v>
@@ -4223,7 +4226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C99">
         <v>13.6</v>
@@ -4252,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100">
         <v>13.6</v>
@@ -4281,7 +4284,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>13.5</v>
@@ -4310,7 +4313,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102">
         <v>13.5</v>
@@ -4339,7 +4342,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103">
         <v>13.2</v>
@@ -4368,7 +4371,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104">
         <v>13.1</v>
@@ -4397,7 +4400,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>13.1</v>
@@ -4426,7 +4429,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>13</v>
@@ -4455,7 +4458,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>12.9</v>
@@ -4484,7 +4487,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>12.9</v>
@@ -4513,7 +4516,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C109">
         <v>12.9</v>
@@ -4542,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C110">
         <v>12.8</v>
@@ -4571,7 +4574,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111">
         <v>12.8</v>
@@ -4600,7 +4603,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>12.7</v>
@@ -4629,7 +4632,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C113">
         <v>12.7</v>
@@ -4658,7 +4661,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>12.7</v>
@@ -4687,7 +4690,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C115">
         <v>12.7</v>
@@ -4716,7 +4719,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>12.6</v>
@@ -4745,7 +4748,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>12.4</v>
@@ -4774,7 +4777,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>12.4</v>
@@ -4803,7 +4806,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>12.3</v>
@@ -4832,7 +4835,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>12.2</v>
@@ -4861,7 +4864,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>12.2</v>
@@ -4890,7 +4893,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C122">
         <v>12.2</v>
@@ -4919,7 +4922,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>12.2</v>
@@ -4948,7 +4951,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C124">
         <v>12.2</v>
@@ -4977,7 +4980,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C125">
         <v>12.2</v>
@@ -5006,7 +5009,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C126">
         <v>12.1</v>
@@ -5035,7 +5038,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C127">
         <v>12.1</v>
@@ -5064,7 +5067,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C128">
         <v>11.9</v>
@@ -5093,7 +5096,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C129">
         <v>11.9</v>
@@ -5122,7 +5125,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C130">
         <v>11.8</v>
@@ -5151,7 +5154,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C131">
         <v>11.8</v>
@@ -5180,7 +5183,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C132">
         <v>11.8</v>
@@ -5209,7 +5212,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C133">
         <v>11.8</v>
@@ -5238,7 +5241,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C134">
         <v>11.6</v>
@@ -5267,7 +5270,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C135">
         <v>11.6</v>
@@ -5296,7 +5299,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C136">
         <v>11.6</v>
@@ -5325,7 +5328,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C137">
         <v>11.4</v>
@@ -5354,7 +5357,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C138">
         <v>11.3</v>
@@ -5383,7 +5386,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C139">
         <v>11.2</v>
@@ -5412,7 +5415,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C140">
         <v>11.1</v>
@@ -5441,7 +5444,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C141">
         <v>11.1</v>
@@ -5470,7 +5473,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C142">
         <v>11</v>
@@ -5499,7 +5502,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C143">
         <v>11</v>
@@ -5528,7 +5531,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C144">
         <v>10.9</v>
@@ -5557,7 +5560,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C145">
         <v>10.9</v>
@@ -5586,7 +5589,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C146">
         <v>10.9</v>
@@ -5615,7 +5618,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147">
         <v>10.9</v>
@@ -5644,7 +5647,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C148">
         <v>10.7</v>
@@ -5673,7 +5676,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C149">
         <v>10.7</v>
@@ -5702,7 +5705,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C150">
         <v>10.7</v>
@@ -5731,7 +5734,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C151">
         <v>10.6</v>
@@ -5760,7 +5763,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C152">
         <v>10.6</v>
@@ -5789,7 +5792,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C153">
         <v>10.6</v>
@@ -5818,7 +5821,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C154">
         <v>10.6</v>
@@ -5847,7 +5850,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C155">
         <v>10.4</v>
@@ -5876,7 +5879,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C156">
         <v>10.4</v>
@@ -5905,7 +5908,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C157">
         <v>10.4</v>
@@ -5934,7 +5937,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C158">
         <v>10.4</v>
@@ -5963,7 +5966,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C159">
         <v>10.3</v>
@@ -5992,7 +5995,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C160">
         <v>10.3</v>
@@ -6021,7 +6024,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C161">
         <v>10.3</v>
@@ -6050,7 +6053,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C162">
         <v>10.3</v>
@@ -6079,7 +6082,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C163">
         <v>10.2</v>
@@ -6108,7 +6111,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C164">
         <v>10.1</v>
@@ -6137,7 +6140,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -6166,7 +6169,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C166">
         <v>10</v>
@@ -6195,7 +6198,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C167">
         <v>9.9</v>
@@ -6224,7 +6227,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C168">
         <v>9.800000000000001</v>
@@ -6253,7 +6256,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C169">
         <v>9.699999999999999</v>
@@ -6282,7 +6285,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C170">
         <v>9.699999999999999</v>
@@ -6311,7 +6314,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C171">
         <v>9.699999999999999</v>
@@ -6340,7 +6343,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C172">
         <v>9.6</v>
@@ -6369,7 +6372,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C173">
         <v>9.6</v>
@@ -6398,7 +6401,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C174">
         <v>9.6</v>
@@ -6427,7 +6430,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C175">
         <v>9.6</v>
@@ -6456,7 +6459,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C176">
         <v>9.5</v>
@@ -6485,7 +6488,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C177">
         <v>9.5</v>
@@ -6514,7 +6517,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C178">
         <v>9.5</v>
@@ -6543,7 +6546,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C179">
         <v>9.4</v>
@@ -6572,7 +6575,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C180">
         <v>9.4</v>
@@ -6601,7 +6604,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C181">
         <v>9.4</v>
@@ -6630,7 +6633,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C182">
         <v>9.300000000000001</v>
@@ -6659,7 +6662,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C183">
         <v>9.1</v>
@@ -6688,7 +6691,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C184">
         <v>9.1</v>
@@ -6717,7 +6720,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C185">
         <v>9</v>
@@ -6746,7 +6749,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C186">
         <v>8.9</v>
@@ -6775,7 +6778,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C187">
         <v>8.9</v>
@@ -6804,7 +6807,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C188">
         <v>8.800000000000001</v>
@@ -6833,7 +6836,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C189">
         <v>8.800000000000001</v>
@@ -6862,7 +6865,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C190">
         <v>8.800000000000001</v>
@@ -6891,7 +6894,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C191">
         <v>8.800000000000001</v>
@@ -6920,7 +6923,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C192">
         <v>8.699999999999999</v>
@@ -6949,7 +6952,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C193">
         <v>8.699999999999999</v>
@@ -6978,7 +6981,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C194">
         <v>8.699999999999999</v>
@@ -7007,7 +7010,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C195">
         <v>8.699999999999999</v>
@@ -7036,7 +7039,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C196">
         <v>8.699999999999999</v>
@@ -7065,7 +7068,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C197">
         <v>8.6</v>
@@ -7094,7 +7097,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C198">
         <v>8.6</v>
@@ -7123,7 +7126,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C199">
         <v>8.5</v>
@@ -7152,7 +7155,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C200">
         <v>8.5</v>
@@ -7181,7 +7184,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C201">
         <v>8.5</v>
@@ -7210,7 +7213,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C202">
         <v>8.5</v>
@@ -7239,7 +7242,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C203">
         <v>8.4</v>
@@ -7268,7 +7271,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C204">
         <v>8.4</v>
@@ -7297,7 +7300,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C205">
         <v>8.300000000000001</v>
@@ -7326,7 +7329,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C206">
         <v>8.300000000000001</v>
@@ -7355,7 +7358,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C207">
         <v>8.300000000000001</v>
@@ -7384,7 +7387,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C208">
         <v>8.1</v>
@@ -7413,7 +7416,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C209">
         <v>8.1</v>
@@ -7442,7 +7445,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C210">
         <v>8</v>
@@ -7471,7 +7474,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C211">
         <v>8</v>
@@ -7500,7 +7503,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C212">
         <v>7.9</v>
@@ -7529,7 +7532,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C213">
         <v>7.9</v>
@@ -7558,7 +7561,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C214">
         <v>7.9</v>
@@ -7587,7 +7590,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C215">
         <v>7.8</v>
@@ -7616,7 +7619,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C216">
         <v>7.8</v>
@@ -7645,7 +7648,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C217">
         <v>7.8</v>
@@ -7674,7 +7677,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C218">
         <v>7.8</v>
@@ -7703,7 +7706,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C219">
         <v>7.8</v>
@@ -7732,7 +7735,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C220">
         <v>7.8</v>
@@ -7761,7 +7764,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C221">
         <v>7.8</v>
@@ -7790,7 +7793,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C222">
         <v>7.5</v>
@@ -7819,7 +7822,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C223">
         <v>7.5</v>
@@ -7848,7 +7851,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C224">
         <v>7.5</v>
@@ -7877,7 +7880,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C225">
         <v>7.4</v>
@@ -7906,7 +7909,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C226">
         <v>7.4</v>
@@ -7935,7 +7938,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C227">
         <v>7.4</v>
@@ -7964,7 +7967,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C228">
         <v>7.3</v>
@@ -7993,7 +7996,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C229">
         <v>7.3</v>
@@ -8022,7 +8025,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C230">
         <v>7.3</v>
@@ -8051,7 +8054,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C231">
         <v>7.3</v>
@@ -8080,7 +8083,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C232">
         <v>7.2</v>
@@ -8109,7 +8112,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C233">
         <v>7.1</v>
@@ -8138,7 +8141,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C234">
         <v>7.1</v>
@@ -8167,7 +8170,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C235">
         <v>7.1</v>
@@ -8196,7 +8199,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C236">
         <v>7</v>
@@ -8225,7 +8228,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C237">
         <v>7</v>
@@ -8254,7 +8257,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C238">
         <v>7</v>
@@ -8283,7 +8286,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C239">
         <v>7</v>
@@ -8312,7 +8315,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C240">
         <v>6.8</v>
@@ -8341,7 +8344,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C241">
         <v>6.8</v>
@@ -8370,7 +8373,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C242">
         <v>6.7</v>
@@ -8399,7 +8402,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C243">
         <v>6.6</v>
@@ -8428,7 +8431,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C244">
         <v>6.6</v>
@@ -8457,7 +8460,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C245">
         <v>6.5</v>
@@ -8486,7 +8489,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C246">
         <v>6.4</v>
@@ -8515,7 +8518,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C247">
         <v>6.4</v>
@@ -8544,7 +8547,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C248">
         <v>6.3</v>
@@ -8573,7 +8576,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C249">
         <v>6.2</v>
@@ -8602,7 +8605,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C250">
         <v>6</v>
@@ -8631,7 +8634,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C251">
         <v>6</v>
@@ -8660,7 +8663,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C252">
         <v>5.9</v>
@@ -8689,7 +8692,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C253">
         <v>5.9</v>
@@ -8718,7 +8721,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C254">
         <v>5.8</v>
@@ -8747,7 +8750,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C255">
         <v>5.7</v>
@@ -8776,7 +8779,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C256">
         <v>5.4</v>
@@ -8805,7 +8808,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C257">
         <v>5.4</v>
@@ -8834,7 +8837,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C258">
         <v>5.4</v>
@@ -8863,7 +8866,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C259">
         <v>5.2</v>
@@ -8892,7 +8895,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C260">
         <v>5.2</v>
@@ -8921,7 +8924,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C261">
         <v>5.2</v>
@@ -8950,7 +8953,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C262">
         <v>4.9</v>
@@ -8979,7 +8982,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C263">
         <v>4.9</v>
@@ -9008,7 +9011,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C264">
         <v>4.9</v>
@@ -9037,7 +9040,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C265">
         <v>4.8</v>
@@ -9066,7 +9069,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C266">
         <v>4.6</v>
@@ -9095,7 +9098,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C267">
         <v>4.5</v>
@@ -9124,7 +9127,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C268">
         <v>4.4</v>
@@ -9153,7 +9156,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C269">
         <v>4.3</v>
@@ -9182,7 +9185,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C270">
         <v>4.2</v>
@@ -9211,7 +9214,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C271">
         <v>4.1</v>
@@ -9240,7 +9243,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C272">
         <v>4</v>
@@ -9269,7 +9272,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C273">
         <v>4</v>
@@ -9298,7 +9301,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C274">
         <v>3.9</v>
@@ -9327,7 +9330,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C275">
         <v>3.9</v>
@@ -9356,7 +9359,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C276">
         <v>3.9</v>
@@ -9385,7 +9388,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C277">
         <v>3.8</v>
@@ -9414,7 +9417,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C278">
         <v>3.8</v>
@@ -9443,7 +9446,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C279">
         <v>3.7</v>
@@ -9472,7 +9475,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C280">
         <v>3.6</v>
@@ -9501,7 +9504,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C281">
         <v>3.6</v>
@@ -9530,7 +9533,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C282">
         <v>3.6</v>
@@ -9559,7 +9562,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C283">
         <v>3.6</v>
@@ -9588,7 +9591,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C284">
         <v>3.5</v>
@@ -9617,7 +9620,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C285">
         <v>3.5</v>
@@ -9646,7 +9649,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C286">
         <v>3.5</v>
@@ -9675,7 +9678,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C287">
         <v>3.3</v>
@@ -9704,7 +9707,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C288">
         <v>3.2</v>
@@ -9733,7 +9736,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C289">
         <v>3.2</v>
@@ -9762,7 +9765,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C290">
         <v>3.2</v>
@@ -9791,7 +9794,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C291">
         <v>3.2</v>
@@ -9820,7 +9823,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C292">
         <v>3.2</v>
@@ -9849,7 +9852,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C293">
         <v>3.2</v>
@@ -9878,7 +9881,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C294">
         <v>3.1</v>
@@ -9907,7 +9910,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C295">
         <v>3.1</v>
@@ -9936,7 +9939,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C296">
         <v>3.1</v>
@@ -9965,7 +9968,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C297">
         <v>3.1</v>
@@ -9994,7 +9997,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C298">
         <v>3</v>
@@ -10023,7 +10026,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -10052,7 +10055,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C300">
         <v>3</v>
@@ -10081,7 +10084,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C301">
         <v>2.9</v>
@@ -10110,7 +10113,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C302">
         <v>2.9</v>
@@ -10139,7 +10142,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C303">
         <v>2.8</v>
@@ -10168,7 +10171,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C304">
         <v>2.7</v>
@@ -10197,7 +10200,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C305">
         <v>2.6</v>
@@ -10226,7 +10229,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C306">
         <v>2.6</v>
@@ -10255,7 +10258,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C307">
         <v>2.5</v>
@@ -10284,7 +10287,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C308">
         <v>2.5</v>
@@ -10313,7 +10316,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C309">
         <v>2.5</v>
@@ -10342,7 +10345,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C310">
         <v>2.5</v>
@@ -10371,7 +10374,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C311">
         <v>2.4</v>
@@ -10400,7 +10403,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C312">
         <v>2.3</v>
@@ -10429,7 +10432,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C313">
         <v>2.1</v>
@@ -10458,7 +10461,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -10487,7 +10490,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C315">
         <v>1.9</v>
@@ -10516,7 +10519,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C316">
         <v>1.7</v>
@@ -10542,7 +10545,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C317">
         <v>3.11</v>
@@ -10568,7 +10571,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C318">
         <v>5.25</v>
@@ -10594,7 +10597,7 @@
     </row>
     <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C319">
         <v>3.1</v>
@@ -10620,7 +10623,7 @@
     </row>
     <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C320">
         <v>3.89</v>
@@ -10644,9 +10647,9 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="321" spans="2:9">
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C321">
         <v>2.54</v>
@@ -10670,9 +10673,9 @@
         <v>4.36</v>
       </c>
     </row>
-    <row r="322" spans="2:9">
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C322">
         <v>2.83</v>
@@ -10696,9 +10699,9 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="323" spans="2:9">
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C323">
         <v>1.82</v>
@@ -10722,9 +10725,9 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="324" spans="2:9">
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C324">
         <v>2.07</v>
@@ -10748,9 +10751,9 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="325" spans="2:9">
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C325">
         <v>4.05</v>
@@ -10771,6 +10774,267 @@
         <v>36.69</v>
       </c>
       <c r="I325">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>3.11</v>
+      </c>
+      <c r="D326">
+        <v>10.68</v>
+      </c>
+      <c r="E326">
+        <v>8.32</v>
+      </c>
+      <c r="F326">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G326">
+        <v>12.02</v>
+      </c>
+      <c r="H326">
+        <v>28.22</v>
+      </c>
+      <c r="I326">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>5.25</v>
+      </c>
+      <c r="D327">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>8.49</v>
+      </c>
+      <c r="F327">
+        <v>9.09</v>
+      </c>
+      <c r="G327">
+        <v>11.78</v>
+      </c>
+      <c r="H327">
+        <v>47.38</v>
+      </c>
+      <c r="I327">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>3.1</v>
+      </c>
+      <c r="D328">
+        <v>15.05</v>
+      </c>
+      <c r="E328">
+        <v>10.77</v>
+      </c>
+      <c r="F328">
+        <v>6.65</v>
+      </c>
+      <c r="G328">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="H328">
+        <v>28.16</v>
+      </c>
+      <c r="I328">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>3.89</v>
+      </c>
+      <c r="D329">
+        <v>10.72</v>
+      </c>
+      <c r="E329">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F329">
+        <v>9.33</v>
+      </c>
+      <c r="G329">
+        <v>10.75</v>
+      </c>
+      <c r="H329">
+        <v>34.31</v>
+      </c>
+      <c r="I329">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>2.54</v>
+      </c>
+      <c r="D330">
+        <v>14.6</v>
+      </c>
+      <c r="E330">
+        <v>13.88</v>
+      </c>
+      <c r="F330">
+        <v>6.85</v>
+      </c>
+      <c r="G330">
+        <v>7.21</v>
+      </c>
+      <c r="H330">
+        <v>22.93</v>
+      </c>
+      <c r="I330">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>2.83</v>
+      </c>
+      <c r="D331">
+        <v>10.72</v>
+      </c>
+      <c r="E331">
+        <v>10.17</v>
+      </c>
+      <c r="F331">
+        <v>9.33</v>
+      </c>
+      <c r="G331">
+        <v>9.83</v>
+      </c>
+      <c r="H331">
+        <v>25.75</v>
+      </c>
+      <c r="I331">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <v>1.82</v>
+      </c>
+      <c r="D332">
+        <v>16.53</v>
+      </c>
+      <c r="E332">
+        <v>10.93</v>
+      </c>
+      <c r="F332">
+        <v>6.05</v>
+      </c>
+      <c r="G332">
+        <v>9.15</v>
+      </c>
+      <c r="H332">
+        <v>16.36</v>
+      </c>
+      <c r="I332">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>2.07</v>
+      </c>
+      <c r="D333">
+        <v>15.44</v>
+      </c>
+      <c r="E333">
+        <v>15.13</v>
+      </c>
+      <c r="F333">
+        <v>6.48</v>
+      </c>
+      <c r="G333">
+        <v>6.61</v>
+      </c>
+      <c r="H333">
+        <v>18.68</v>
+      </c>
+      <c r="I333">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <v>4.05</v>
+      </c>
+      <c r="D334">
+        <v>9.99</v>
+      </c>
+      <c r="E334">
+        <v>10.04</v>
+      </c>
+      <c r="F334">
+        <v>10.01</v>
+      </c>
+      <c r="G334">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="H334">
+        <v>36.69</v>
+      </c>
+      <c r="I334">
         <v>2.73</v>
       </c>
     </row>
